--- a/log_samsung_1ft_cleaned.xlsx
+++ b/log_samsung_1ft_cleaned.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,39 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sophie Walker\Desktop\BLE Tag Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC18A420-9CDE-4807-84A9-542427D186E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F0EF98-95EA-44C2-8DA9-3C09C59FB071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="11520"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="log_samsung_1ft_cleaned" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">log_samsung_1ft_cleaned!$H$25:$H$54</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">log_samsung_1ft_cleaned!$H$2:$H$24</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">log_samsung_1ft_cleaned!$H$55:$H$74</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">log_samsung_1ft_cleaned!$H$75:$H$88</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">log_samsung_1ft_cleaned!$H$89:$H$103</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="141">
   <si>
     <t xml:space="preserve"> 7777772e-6b6b-6d63-6e2e-636f6d000001 </t>
   </si>
@@ -49,15 +69,9 @@
     <t>2023-11-15T15:31:56.886915</t>
   </si>
   <si>
-    <t xml:space="preserve">  0.25677466659584786 m </t>
-  </si>
-  <si>
     <t>2023-11-15T15:31:57.998091</t>
   </si>
   <si>
-    <t xml:space="preserve">  0.24858478572383144 m </t>
-  </si>
-  <si>
     <t>2023-11-15T15:32:07.984851</t>
   </si>
   <si>
@@ -437,12 +451,28 @@
   </si>
   <si>
     <t>2023-11-15T15:46:12.176040</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.25677466659584786 m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.248584785723831 m </t>
+  </si>
+  <si>
+    <t>Distance measured</t>
+  </si>
+  <si>
+    <t>RSSI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="h:mm:ss;@"/>
+    <numFmt numFmtId="165" formatCode="[$-409]h:mm:ss\ AM/PM;@"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -920,8 +950,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -978,6 +1010,779 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.1</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.0</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="2">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.2</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="3">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.3</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="4">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.4</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Samsung with 5 tags</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>Samsung with 5 tags</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{00000002-6227-4CA0-A4A6-99A6F834F607}" formatIdx="2">
+          <cx:tx>
+            <cx:txData>
+              <cx:f/>
+              <cx:v>UP</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{00000003-6227-4CA0-A4A6-99A6F834F607}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f/>
+              <cx:v>!</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{00000004-6227-4CA0-A4A6-99A6F834F607}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f/>
+              <cx:v>YOU</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="2"/>
+          <cx:layoutPr>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{00000005-6227-4CA0-A4A6-99A6F834F607}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f/>
+              <cx:v>Gonna</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="3"/>
+          <cx:layoutPr>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{00000006-6227-4CA0-A4A6-99A6F834F607}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f/>
+              <cx:v>Never</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="4"/>
+          <cx:layoutPr>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Chart 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B19325B-F321-6D7A-D23C-4189D86AA9D6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4495800" y="20164425"/>
+              <a:ext cx="4914900" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1276,41 +2081,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G102"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="38" style="2" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1">
-        <v>4</v>
-      </c>
-      <c r="D1">
-        <v>59279</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1">
-        <v>-51</v>
-      </c>
-      <c r="G1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>10</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -1325,15 +2119,19 @@
         <v>5</v>
       </c>
       <c r="F2">
-        <v>-46</v>
+        <v>-51</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>12</v>
+        <v>137</v>
+      </c>
+      <c r="H2">
+        <f>CONVERT(VALUE(LEFT(G2,LEN(G2)-2)),"m","cm")</f>
+        <v>25.677466659584702</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
@@ -1348,15 +2146,19 @@
         <v>5</v>
       </c>
       <c r="F3">
-        <v>-53</v>
+        <v>-46</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>14</v>
+        <v>138</v>
+      </c>
+      <c r="H3">
+        <f>CONVERT(VALUE(LEFT(G3,LEN(G3)-2)),"m","cm")</f>
+        <v>24.858478572383099</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
@@ -1371,15 +2173,19 @@
         <v>5</v>
       </c>
       <c r="F4">
-        <v>-48</v>
+        <v>-53</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4:H67" si="0">CONVERT(VALUE(LEFT(G4,LEN(G4)-2)),"m","cm")</f>
+        <v>26.951530022706699</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
@@ -1394,15 +2200,19 @@
         <v>5</v>
       </c>
       <c r="F5">
-        <v>-52</v>
+        <v>-48</v>
       </c>
       <c r="G5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>17</v>
+        <v>13</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>23.290651902695799</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="B6" t="s">
         <v>0</v>
@@ -1417,15 +2227,19 @@
         <v>5</v>
       </c>
       <c r="F6">
-        <v>-53</v>
+        <v>-52</v>
       </c>
       <c r="G6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>18</v>
+        <v>7</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>28.282208519983399</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="B7" t="s">
         <v>0</v>
@@ -1440,15 +2254,19 @@
         <v>5</v>
       </c>
       <c r="F7">
-        <v>-47</v>
+        <v>-53</v>
       </c>
       <c r="G7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>19</v>
+        <v>4</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>31.122388352366798</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="B8" t="s">
         <v>0</v>
@@ -1466,12 +2284,16 @@
         <v>-47</v>
       </c>
       <c r="G8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>21</v>
+        <v>7</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>28.282208519983399</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="B9" t="s">
         <v>0</v>
@@ -1486,15 +2308,19 @@
         <v>5</v>
       </c>
       <c r="F9">
-        <v>-52</v>
+        <v>-47</v>
       </c>
       <c r="G9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>23</v>
+        <v>18</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>10.2910209646152</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="B10" t="s">
         <v>0</v>
@@ -1509,15 +2335,19 @@
         <v>5</v>
       </c>
       <c r="F10">
-        <v>-47</v>
+        <v>-52</v>
       </c>
       <c r="G10" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>24</v>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>17.279527904777702</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>0</v>
@@ -1532,15 +2362,19 @@
         <v>5</v>
       </c>
       <c r="F11">
-        <v>-52</v>
+        <v>-47</v>
       </c>
       <c r="G11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>10.2910209646152</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>25</v>
       </c>
       <c r="B12" t="s">
         <v>0</v>
@@ -1555,15 +2389,19 @@
         <v>5</v>
       </c>
       <c r="F12">
-        <v>-47</v>
+        <v>-52</v>
       </c>
       <c r="G12" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>26</v>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>17.279527904777702</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>0</v>
@@ -1578,15 +2416,19 @@
         <v>5</v>
       </c>
       <c r="F13">
-        <v>-46</v>
+        <v>-47</v>
       </c>
       <c r="G13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>28</v>
+        <v>18</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>10.2910209646152</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="B14" t="s">
         <v>0</v>
@@ -1601,15 +2443,19 @@
         <v>5</v>
       </c>
       <c r="F14">
-        <v>-54</v>
+        <v>-46</v>
       </c>
       <c r="G14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>29</v>
+        <v>25</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>9.2471821516828605</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="B15" t="s">
         <v>0</v>
@@ -1624,15 +2470,19 @@
         <v>5</v>
       </c>
       <c r="F15">
-        <v>-46</v>
+        <v>-54</v>
       </c>
       <c r="G15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>10.2910209646152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>30</v>
       </c>
       <c r="B16" t="s">
         <v>0</v>
@@ -1650,12 +2500,16 @@
         <v>-46</v>
       </c>
       <c r="G16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>32</v>
+        <v>25</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>9.2471821516828605</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="B17" t="s">
         <v>0</v>
@@ -1673,12 +2527,16 @@
         <v>-46</v>
       </c>
       <c r="G17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>34</v>
+        <v>29</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>8.9210369653558494</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="B18" t="s">
         <v>0</v>
@@ -1696,12 +2554,16 @@
         <v>-46</v>
       </c>
       <c r="G18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>36</v>
+        <v>31</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>12.056288803421099</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="B19" t="s">
         <v>0</v>
@@ -1716,15 +2578,19 @@
         <v>5</v>
       </c>
       <c r="F19">
-        <v>-47</v>
+        <v>-46</v>
       </c>
       <c r="G19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>37</v>
+        <v>33</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>8.2996198439663491</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="B20" t="s">
         <v>0</v>
@@ -1739,15 +2605,19 @@
         <v>5</v>
       </c>
       <c r="F20">
-        <v>-45</v>
+        <v>-47</v>
       </c>
       <c r="G20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>38</v>
+        <v>25</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="0"/>
+        <v>9.2471821516828605</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="B21" t="s">
         <v>0</v>
@@ -1762,15 +2632,19 @@
         <v>5</v>
       </c>
       <c r="F21">
-        <v>-55</v>
+        <v>-45</v>
       </c>
       <c r="G21" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>39</v>
+        <v>29</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="0"/>
+        <v>8.9210369653558494</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="B22" t="s">
         <v>0</v>
@@ -1785,15 +2659,19 @@
         <v>5</v>
       </c>
       <c r="F22">
-        <v>-56</v>
+        <v>-55</v>
       </c>
       <c r="G22" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>40</v>
+        <v>25</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="0"/>
+        <v>9.2471821516828605</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="B23" t="s">
         <v>0</v>
@@ -1808,38 +2686,46 @@
         <v>5</v>
       </c>
       <c r="F23">
+        <v>-56</v>
+      </c>
+      <c r="G23" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="0"/>
+        <v>23.290651902695799</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>4</v>
+      </c>
+      <c r="D24">
+        <v>59279</v>
+      </c>
+      <c r="E24" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24">
         <v>-65</v>
       </c>
-      <c r="G23" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>42</v>
-      </c>
-      <c r="B24" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24">
-        <v>4</v>
-      </c>
-      <c r="D24">
-        <v>59245</v>
-      </c>
-      <c r="E24" t="s">
-        <v>2</v>
-      </c>
-      <c r="F24">
-        <v>-55</v>
-      </c>
       <c r="G24" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>44</v>
+        <v>39</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="0"/>
+        <v>32.124635296713798</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="B25" t="s">
         <v>0</v>
@@ -1854,15 +2740,19 @@
         <v>2</v>
       </c>
       <c r="F25">
-        <v>-47</v>
+        <v>-55</v>
       </c>
       <c r="G25" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>45</v>
+        <v>41</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="0"/>
+        <v>49.557202045018997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="B26" t="s">
         <v>0</v>
@@ -1880,12 +2770,16 @@
         <v>-47</v>
       </c>
       <c r="G26" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>46</v>
+        <v>13</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="0"/>
+        <v>23.290651902695799</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="B27" t="s">
         <v>0</v>
@@ -1900,15 +2794,19 @@
         <v>2</v>
       </c>
       <c r="F27">
-        <v>-50</v>
+        <v>-47</v>
       </c>
       <c r="G27" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>48</v>
+        <v>18</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="0"/>
+        <v>10.2910209646152</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="B28" t="s">
         <v>0</v>
@@ -1923,15 +2821,19 @@
         <v>2</v>
       </c>
       <c r="F28">
-        <v>-49</v>
+        <v>-50</v>
       </c>
       <c r="G28" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>50</v>
+        <v>45</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="0"/>
+        <v>14.089554769441001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="B29" t="s">
         <v>0</v>
@@ -1946,15 +2848,19 @@
         <v>2</v>
       </c>
       <c r="F29">
-        <v>-46</v>
+        <v>-49</v>
       </c>
       <c r="G29" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>52</v>
+        <v>47</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="0"/>
+        <v>14.58128821088</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="B30" t="s">
         <v>0</v>
@@ -1969,15 +2875,19 @@
         <v>2</v>
       </c>
       <c r="F30">
-        <v>-49</v>
+        <v>-46</v>
       </c>
       <c r="G30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>54</v>
+        <v>49</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="0"/>
+        <v>11.847527106983801</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="B31" t="s">
         <v>0</v>
@@ -1992,15 +2902,19 @@
         <v>2</v>
       </c>
       <c r="F31">
-        <v>-48</v>
+        <v>-49</v>
       </c>
       <c r="G31" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>55</v>
+        <v>51</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="0"/>
+        <v>12.7025893182483</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="B32" t="s">
         <v>0</v>
@@ -2015,15 +2929,19 @@
         <v>2</v>
       </c>
       <c r="F32">
-        <v>-47</v>
+        <v>-48</v>
       </c>
       <c r="G32" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>57</v>
+        <v>47</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="0"/>
+        <v>14.58128821088</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="B33" t="s">
         <v>0</v>
@@ -2038,15 +2956,19 @@
         <v>2</v>
       </c>
       <c r="F33">
-        <v>-50</v>
+        <v>-47</v>
       </c>
       <c r="G33" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>58</v>
+        <v>54</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="0"/>
+        <v>11.439735411706401</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="B34" t="s">
         <v>0</v>
@@ -2064,12 +2986,16 @@
         <v>-50</v>
       </c>
       <c r="G34" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>60</v>
+        <v>51</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="0"/>
+        <v>12.7025893182483</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="B35" t="s">
         <v>0</v>
@@ -2084,15 +3010,19 @@
         <v>2</v>
       </c>
       <c r="F35">
-        <v>-48</v>
+        <v>-50</v>
       </c>
       <c r="G35" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>61</v>
+        <v>57</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="0"/>
+        <v>19.106446691360503</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="B36" t="s">
         <v>0</v>
@@ -2110,12 +3040,16 @@
         <v>-48</v>
       </c>
       <c r="G36" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>62</v>
+        <v>57</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="0"/>
+        <v>19.106446691360503</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="B37" t="s">
         <v>0</v>
@@ -2130,15 +3064,19 @@
         <v>2</v>
       </c>
       <c r="F37">
-        <v>-46</v>
+        <v>-48</v>
       </c>
       <c r="G37" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>63</v>
+        <v>51</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="0"/>
+        <v>12.7025893182483</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="B38" t="s">
         <v>0</v>
@@ -2156,12 +3094,16 @@
         <v>-46</v>
       </c>
       <c r="G38" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>64</v>
+        <v>51</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="0"/>
+        <v>12.7025893182483</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="B39" t="s">
         <v>0</v>
@@ -2176,15 +3118,19 @@
         <v>2</v>
       </c>
       <c r="F39">
-        <v>-50</v>
+        <v>-46</v>
       </c>
       <c r="G39" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>65</v>
+        <v>33</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="0"/>
+        <v>8.2996198439663491</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="B40" t="s">
         <v>0</v>
@@ -2199,15 +3145,19 @@
         <v>2</v>
       </c>
       <c r="F40">
-        <v>-48</v>
+        <v>-50</v>
       </c>
       <c r="G40" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>66</v>
+        <v>51</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="0"/>
+        <v>12.7025893182483</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="B41" t="s">
         <v>0</v>
@@ -2222,15 +3172,19 @@
         <v>2</v>
       </c>
       <c r="F41">
-        <v>-50</v>
+        <v>-48</v>
       </c>
       <c r="G41" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>67</v>
+        <v>51</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="0"/>
+        <v>12.7025893182483</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="B42" t="s">
         <v>0</v>
@@ -2245,15 +3199,19 @@
         <v>2</v>
       </c>
       <c r="F42">
-        <v>-48</v>
+        <v>-50</v>
       </c>
       <c r="G42" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>69</v>
+        <v>57</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="0"/>
+        <v>19.106446691360503</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="B43" t="s">
         <v>0</v>
@@ -2268,15 +3226,19 @@
         <v>2</v>
       </c>
       <c r="F43">
-        <v>-47</v>
+        <v>-48</v>
       </c>
       <c r="G43" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>70</v>
+        <v>66</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="0"/>
+        <v>15.6113580277572</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="B44" t="s">
         <v>0</v>
@@ -2291,15 +3253,19 @@
         <v>2</v>
       </c>
       <c r="F44">
-        <v>-50</v>
+        <v>-47</v>
       </c>
       <c r="G44" t="s">
+        <v>47</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="0"/>
+        <v>14.58128821088</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>71</v>
       </c>
       <c r="B45" t="s">
         <v>0</v>
@@ -2314,15 +3280,19 @@
         <v>2</v>
       </c>
       <c r="F45">
-        <v>-48</v>
+        <v>-50</v>
       </c>
       <c r="G45" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>72</v>
+        <v>66</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="0"/>
+        <v>15.6113580277572</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="B46" t="s">
         <v>0</v>
@@ -2337,15 +3307,19 @@
         <v>2</v>
       </c>
       <c r="F46">
-        <v>-50</v>
+        <v>-48</v>
       </c>
       <c r="G46" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>73</v>
+        <v>45</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="0"/>
+        <v>14.089554769441001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="B47" t="s">
         <v>0</v>
@@ -2363,12 +3337,16 @@
         <v>-50</v>
       </c>
       <c r="G47" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>75</v>
+        <v>66</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="0"/>
+        <v>15.6113580277572</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="B48" t="s">
         <v>0</v>
@@ -2383,15 +3361,19 @@
         <v>2</v>
       </c>
       <c r="F48">
-        <v>-48</v>
+        <v>-50</v>
       </c>
       <c r="G48" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>76</v>
+        <v>72</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="0"/>
+        <v>16.706462120366599</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="B49" t="s">
         <v>0</v>
@@ -2406,15 +3388,19 @@
         <v>2</v>
       </c>
       <c r="F49">
-        <v>-50</v>
+        <v>-48</v>
       </c>
       <c r="G49" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>78</v>
+        <v>66</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="0"/>
+        <v>15.6113580277572</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="B50" t="s">
         <v>0</v>
@@ -2429,15 +3415,19 @@
         <v>2</v>
       </c>
       <c r="F50">
-        <v>-49</v>
+        <v>-50</v>
       </c>
       <c r="G50" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>79</v>
+        <v>75</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="0"/>
+        <v>16.260388257563399</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="B51" t="s">
         <v>0</v>
@@ -2452,15 +3442,19 @@
         <v>2</v>
       </c>
       <c r="F51">
-        <v>-47</v>
+        <v>-49</v>
       </c>
       <c r="G51" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>80</v>
+        <v>20</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="0"/>
+        <v>17.279527904777702</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="B52" t="s">
         <v>0</v>
@@ -2478,12 +3472,16 @@
         <v>-47</v>
       </c>
       <c r="G52" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>81</v>
+        <v>45</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="0"/>
+        <v>14.089554769441001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="B53" t="s">
         <v>0</v>
@@ -2498,38 +3496,46 @@
         <v>2</v>
       </c>
       <c r="F53">
+        <v>-47</v>
+      </c>
+      <c r="G53" t="s">
+        <v>51</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="0"/>
+        <v>12.7025893182483</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B54" t="s">
+        <v>0</v>
+      </c>
+      <c r="C54">
+        <v>4</v>
+      </c>
+      <c r="D54">
+        <v>59245</v>
+      </c>
+      <c r="E54" t="s">
+        <v>2</v>
+      </c>
+      <c r="F54">
         <v>-58</v>
       </c>
-      <c r="G53" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>82</v>
-      </c>
-      <c r="B54" t="s">
-        <v>0</v>
-      </c>
-      <c r="C54">
-        <v>4</v>
-      </c>
-      <c r="D54">
-        <v>59248</v>
-      </c>
-      <c r="E54" t="s">
-        <v>83</v>
-      </c>
-      <c r="F54">
-        <v>-44</v>
-      </c>
       <c r="G54" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>85</v>
+        <v>51</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="0"/>
+        <v>12.7025893182483</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="B55" t="s">
         <v>0</v>
@@ -2541,18 +3547,22 @@
         <v>59248</v>
       </c>
       <c r="E55" t="s">
+        <v>81</v>
+      </c>
+      <c r="F55">
+        <v>-44</v>
+      </c>
+      <c r="G55" t="s">
+        <v>82</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="0"/>
+        <v>5.3211640516155301</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="F55">
-        <v>-48</v>
-      </c>
-      <c r="G55" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>86</v>
       </c>
       <c r="B56" t="s">
         <v>0</v>
@@ -2564,18 +3574,22 @@
         <v>59248</v>
       </c>
       <c r="E56" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F56">
-        <v>-45</v>
+        <v>-48</v>
       </c>
       <c r="G56" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>87</v>
+        <v>33</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="0"/>
+        <v>8.2996198439663491</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="B57" t="s">
         <v>0</v>
@@ -2587,7 +3601,7 @@
         <v>59248</v>
       </c>
       <c r="E57" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F57">
         <v>-45</v>
@@ -2595,10 +3609,14 @@
       <c r="G57" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>88</v>
+      <c r="H57">
+        <f t="shared" si="0"/>
+        <v>6.6620060281973998</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="B58" t="s">
         <v>0</v>
@@ -2610,7 +3628,7 @@
         <v>59248</v>
       </c>
       <c r="E58" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F58">
         <v>-45</v>
@@ -2618,10 +3636,14 @@
       <c r="G58" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>89</v>
+      <c r="H58">
+        <f t="shared" si="0"/>
+        <v>6.6620060281973998</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="B59" t="s">
         <v>0</v>
@@ -2633,7 +3655,7 @@
         <v>59248</v>
       </c>
       <c r="E59" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F59">
         <v>-45</v>
@@ -2641,10 +3663,14 @@
       <c r="G59" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>90</v>
+      <c r="H59">
+        <f t="shared" si="0"/>
+        <v>6.6620060281973998</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="B60" t="s">
         <v>0</v>
@@ -2656,7 +3682,7 @@
         <v>59248</v>
       </c>
       <c r="E60" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F60">
         <v>-45</v>
@@ -2664,10 +3690,14 @@
       <c r="G60" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>91</v>
+      <c r="H60">
+        <f t="shared" si="0"/>
+        <v>6.6620060281973998</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="B61" t="s">
         <v>0</v>
@@ -2679,7 +3709,7 @@
         <v>59248</v>
       </c>
       <c r="E61" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F61">
         <v>-45</v>
@@ -2687,10 +3717,14 @@
       <c r="G61" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>92</v>
+      <c r="H61">
+        <f t="shared" si="0"/>
+        <v>6.6620060281973998</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="B62" t="s">
         <v>0</v>
@@ -2702,7 +3736,7 @@
         <v>59248</v>
       </c>
       <c r="E62" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F62">
         <v>-45</v>
@@ -2710,10 +3744,14 @@
       <c r="G62" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>93</v>
+      <c r="H62">
+        <f t="shared" si="0"/>
+        <v>6.6620060281973998</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="B63" t="s">
         <v>0</v>
@@ -2725,7 +3763,7 @@
         <v>59248</v>
       </c>
       <c r="E63" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F63">
         <v>-45</v>
@@ -2733,10 +3771,14 @@
       <c r="G63" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>94</v>
+      <c r="H63">
+        <f t="shared" si="0"/>
+        <v>6.6620060281973998</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="B64" t="s">
         <v>0</v>
@@ -2748,7 +3790,7 @@
         <v>59248</v>
       </c>
       <c r="E64" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F64">
         <v>-45</v>
@@ -2756,10 +3798,14 @@
       <c r="G64" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>95</v>
+      <c r="H64">
+        <f t="shared" si="0"/>
+        <v>6.6620060281973998</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="B65" t="s">
         <v>0</v>
@@ -2771,7 +3817,7 @@
         <v>59248</v>
       </c>
       <c r="E65" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F65">
         <v>-45</v>
@@ -2779,10 +3825,14 @@
       <c r="G65" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>96</v>
+      <c r="H65">
+        <f t="shared" si="0"/>
+        <v>6.6620060281973998</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="B66" t="s">
         <v>0</v>
@@ -2794,7 +3844,7 @@
         <v>59248</v>
       </c>
       <c r="E66" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F66">
         <v>-45</v>
@@ -2802,10 +3852,14 @@
       <c r="G66" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>97</v>
+      <c r="H66">
+        <f t="shared" si="0"/>
+        <v>6.6620060281973998</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="B67" t="s">
         <v>0</v>
@@ -2817,18 +3871,22 @@
         <v>59248</v>
       </c>
       <c r="E67" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F67">
-        <v>-48</v>
+        <v>-45</v>
       </c>
       <c r="G67" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>98</v>
+        <v>6</v>
+      </c>
+      <c r="H67">
+        <f t="shared" si="0"/>
+        <v>6.6620060281973998</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="B68" t="s">
         <v>0</v>
@@ -2840,18 +3898,22 @@
         <v>59248</v>
       </c>
       <c r="E68" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F68">
-        <v>-49</v>
+        <v>-48</v>
       </c>
       <c r="G68" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>99</v>
+        <v>25</v>
+      </c>
+      <c r="H68">
+        <f t="shared" ref="H68:H103" si="1">CONVERT(VALUE(LEFT(G68,LEN(G68)-2)),"m","cm")</f>
+        <v>9.2471821516828605</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="B69" t="s">
         <v>0</v>
@@ -2863,18 +3925,22 @@
         <v>59248</v>
       </c>
       <c r="E69" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F69">
-        <v>-45</v>
+        <v>-49</v>
       </c>
       <c r="G69" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>100</v>
+        <v>51</v>
+      </c>
+      <c r="H69">
+        <f t="shared" si="1"/>
+        <v>12.7025893182483</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="B70" t="s">
         <v>0</v>
@@ -2886,18 +3952,22 @@
         <v>59248</v>
       </c>
       <c r="E70" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F70">
-        <v>-48</v>
+        <v>-45</v>
       </c>
       <c r="G70" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>101</v>
+        <v>18</v>
+      </c>
+      <c r="H70">
+        <f t="shared" si="1"/>
+        <v>10.2910209646152</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="B71" t="s">
         <v>0</v>
@@ -2909,18 +3979,22 @@
         <v>59248</v>
       </c>
       <c r="E71" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F71">
-        <v>-45</v>
+        <v>-48</v>
       </c>
       <c r="G71" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>102</v>
+        <v>51</v>
+      </c>
+      <c r="H71">
+        <f t="shared" si="1"/>
+        <v>12.7025893182483</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="B72" t="s">
         <v>0</v>
@@ -2932,7 +4006,7 @@
         <v>59248</v>
       </c>
       <c r="E72" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F72">
         <v>-45</v>
@@ -2940,10 +4014,14 @@
       <c r="G72" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>103</v>
+      <c r="H72">
+        <f t="shared" si="1"/>
+        <v>6.6620060281973998</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="B73" t="s">
         <v>0</v>
@@ -2955,41 +4033,49 @@
         <v>59248</v>
       </c>
       <c r="E73" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F73">
-        <v>-80</v>
+        <v>-45</v>
       </c>
       <c r="G73" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>104</v>
+      <c r="H73">
+        <f t="shared" si="1"/>
+        <v>6.6620060281973998</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="B74" t="s">
         <v>0</v>
       </c>
       <c r="C74">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D74">
-        <v>1</v>
+        <v>59248</v>
       </c>
       <c r="E74" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="F74">
-        <v>-51</v>
+        <v>-80</v>
       </c>
       <c r="G74" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>106</v>
+        <v>6</v>
+      </c>
+      <c r="H74">
+        <f t="shared" si="1"/>
+        <v>6.6620060281973998</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>102</v>
       </c>
       <c r="B75" t="s">
         <v>0</v>
@@ -3001,18 +4087,22 @@
         <v>1</v>
       </c>
       <c r="E75" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F75">
-        <v>-48</v>
+        <v>-51</v>
       </c>
       <c r="G75" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>107</v>
+        <v>13</v>
+      </c>
+      <c r="H75">
+        <f t="shared" si="1"/>
+        <v>23.290651902695799</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="B76" t="s">
         <v>0</v>
@@ -3024,18 +4114,22 @@
         <v>1</v>
       </c>
       <c r="E76" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F76">
         <v>-48</v>
       </c>
       <c r="G76" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>108</v>
+        <v>20</v>
+      </c>
+      <c r="H76">
+        <f t="shared" si="1"/>
+        <v>17.279527904777702</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="B77" t="s">
         <v>0</v>
@@ -3047,18 +4141,22 @@
         <v>1</v>
       </c>
       <c r="E77" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F77">
-        <v>-51</v>
+        <v>-48</v>
       </c>
       <c r="G77" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>109</v>
+        <v>51</v>
+      </c>
+      <c r="H77">
+        <f t="shared" si="1"/>
+        <v>12.7025893182483</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>106</v>
       </c>
       <c r="B78" t="s">
         <v>0</v>
@@ -3070,18 +4168,22 @@
         <v>1</v>
       </c>
       <c r="E78" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F78">
-        <v>-52</v>
+        <v>-51</v>
       </c>
       <c r="G78" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>110</v>
+        <v>20</v>
+      </c>
+      <c r="H78">
+        <f t="shared" si="1"/>
+        <v>17.279527904777702</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="B79" t="s">
         <v>0</v>
@@ -3093,18 +4195,22 @@
         <v>1</v>
       </c>
       <c r="E79" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F79">
-        <v>-50</v>
+        <v>-52</v>
       </c>
       <c r="G79" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>111</v>
+        <v>13</v>
+      </c>
+      <c r="H79">
+        <f t="shared" si="1"/>
+        <v>23.290651902695799</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>108</v>
       </c>
       <c r="B80" t="s">
         <v>0</v>
@@ -3116,18 +4222,22 @@
         <v>1</v>
       </c>
       <c r="E80" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F80">
         <v>-50</v>
       </c>
       <c r="G80" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>112</v>
+        <v>13</v>
+      </c>
+      <c r="H80">
+        <f t="shared" si="1"/>
+        <v>23.290651902695799</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="B81" t="s">
         <v>0</v>
@@ -3139,18 +4249,22 @@
         <v>1</v>
       </c>
       <c r="E81" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F81">
         <v>-50</v>
       </c>
       <c r="G81" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>113</v>
+        <v>57</v>
+      </c>
+      <c r="H81">
+        <f t="shared" si="1"/>
+        <v>19.106446691360503</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>110</v>
       </c>
       <c r="B82" t="s">
         <v>0</v>
@@ -3162,18 +4276,22 @@
         <v>1</v>
       </c>
       <c r="E82" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F82">
         <v>-50</v>
       </c>
       <c r="G82" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>114</v>
+        <v>57</v>
+      </c>
+      <c r="H82">
+        <f t="shared" si="1"/>
+        <v>19.106446691360503</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>111</v>
       </c>
       <c r="B83" t="s">
         <v>0</v>
@@ -3185,18 +4303,22 @@
         <v>1</v>
       </c>
       <c r="E83" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F83">
-        <v>-49</v>
+        <v>-50</v>
       </c>
       <c r="G83" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>115</v>
+        <v>57</v>
+      </c>
+      <c r="H83">
+        <f t="shared" si="1"/>
+        <v>19.106446691360503</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="B84" t="s">
         <v>0</v>
@@ -3208,18 +4330,22 @@
         <v>1</v>
       </c>
       <c r="E84" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F84">
-        <v>-50</v>
+        <v>-49</v>
       </c>
       <c r="G84" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>116</v>
+        <v>57</v>
+      </c>
+      <c r="H84">
+        <f t="shared" si="1"/>
+        <v>19.106446691360503</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="B85" t="s">
         <v>0</v>
@@ -3231,18 +4357,22 @@
         <v>1</v>
       </c>
       <c r="E85" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F85">
         <v>-50</v>
       </c>
       <c r="G85" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>117</v>
+        <v>57</v>
+      </c>
+      <c r="H85">
+        <f t="shared" si="1"/>
+        <v>19.106446691360503</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
+        <v>114</v>
       </c>
       <c r="B86" t="s">
         <v>0</v>
@@ -3254,18 +4384,22 @@
         <v>1</v>
       </c>
       <c r="E86" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F86">
-        <v>-51</v>
+        <v>-50</v>
       </c>
       <c r="G86" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>118</v>
+        <v>57</v>
+      </c>
+      <c r="H86">
+        <f t="shared" si="1"/>
+        <v>19.106446691360503</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
+        <v>115</v>
       </c>
       <c r="B87" t="s">
         <v>0</v>
@@ -3277,41 +4411,49 @@
         <v>1</v>
       </c>
       <c r="E87" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F87">
+        <v>-51</v>
+      </c>
+      <c r="G87" t="s">
+        <v>57</v>
+      </c>
+      <c r="H87">
+        <f t="shared" si="1"/>
+        <v>19.106446691360503</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B88" t="s">
+        <v>0</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="D88">
+        <v>1</v>
+      </c>
+      <c r="E88" t="s">
+        <v>103</v>
+      </c>
+      <c r="F88">
         <v>-49</v>
       </c>
-      <c r="G87" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>119</v>
-      </c>
-      <c r="B88" t="s">
-        <v>0</v>
-      </c>
-      <c r="C88">
-        <v>4</v>
-      </c>
-      <c r="D88">
-        <v>59225</v>
-      </c>
-      <c r="E88" t="s">
-        <v>120</v>
-      </c>
-      <c r="F88">
-        <v>-53</v>
-      </c>
       <c r="G88" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>121</v>
+        <v>57</v>
+      </c>
+      <c r="H88">
+        <f t="shared" si="1"/>
+        <v>19.106446691360503</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
+        <v>117</v>
       </c>
       <c r="B89" t="s">
         <v>0</v>
@@ -3323,18 +4465,22 @@
         <v>59225</v>
       </c>
       <c r="E89" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F89">
-        <v>-62</v>
+        <v>-53</v>
       </c>
       <c r="G89" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>123</v>
+        <v>3</v>
+      </c>
+      <c r="H89">
+        <f t="shared" si="1"/>
+        <v>34.2167360463419</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
+        <v>119</v>
       </c>
       <c r="B90" t="s">
         <v>0</v>
@@ -3346,18 +4492,22 @@
         <v>59225</v>
       </c>
       <c r="E90" t="s">
+        <v>118</v>
+      </c>
+      <c r="F90">
+        <v>-62</v>
+      </c>
+      <c r="G90" t="s">
         <v>120</v>
       </c>
-      <c r="F90">
-        <v>-50</v>
-      </c>
-      <c r="G90" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>124</v>
+      <c r="H90">
+        <f t="shared" si="1"/>
+        <v>77.296233214124499</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
+        <v>121</v>
       </c>
       <c r="B91" t="s">
         <v>0</v>
@@ -3369,18 +4519,22 @@
         <v>59225</v>
       </c>
       <c r="E91" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F91">
-        <v>-48</v>
+        <v>-50</v>
       </c>
       <c r="G91" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>125</v>
+        <v>3</v>
+      </c>
+      <c r="H91">
+        <f t="shared" si="1"/>
+        <v>34.2167360463419</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
+        <v>122</v>
       </c>
       <c r="B92" t="s">
         <v>0</v>
@@ -3392,18 +4546,22 @@
         <v>59225</v>
       </c>
       <c r="E92" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F92">
-        <v>-67</v>
+        <v>-48</v>
       </c>
       <c r="G92" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>126</v>
+        <v>57</v>
+      </c>
+      <c r="H92">
+        <f t="shared" si="1"/>
+        <v>19.106446691360503</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
+        <v>123</v>
       </c>
       <c r="B93" t="s">
         <v>0</v>
@@ -3415,18 +4573,22 @@
         <v>59225</v>
       </c>
       <c r="E93" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F93">
-        <v>-48</v>
+        <v>-67</v>
       </c>
       <c r="G93" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>127</v>
+        <v>57</v>
+      </c>
+      <c r="H93">
+        <f t="shared" si="1"/>
+        <v>19.106446691360503</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="B94" t="s">
         <v>0</v>
@@ -3438,18 +4600,22 @@
         <v>59225</v>
       </c>
       <c r="E94" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F94">
-        <v>-49</v>
+        <v>-48</v>
       </c>
       <c r="G94" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>128</v>
+        <v>51</v>
+      </c>
+      <c r="H94">
+        <f t="shared" si="1"/>
+        <v>12.7025893182483</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
+        <v>125</v>
       </c>
       <c r="B95" t="s">
         <v>0</v>
@@ -3461,18 +4627,22 @@
         <v>59225</v>
       </c>
       <c r="E95" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F95">
-        <v>-50</v>
+        <v>-49</v>
       </c>
       <c r="G95" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>129</v>
+        <v>45</v>
+      </c>
+      <c r="H95">
+        <f t="shared" si="1"/>
+        <v>14.089554769441001</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
+        <v>126</v>
       </c>
       <c r="B96" t="s">
         <v>0</v>
@@ -3484,18 +4654,22 @@
         <v>59225</v>
       </c>
       <c r="E96" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F96">
-        <v>-59</v>
+        <v>-50</v>
       </c>
       <c r="G96" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>130</v>
+        <v>66</v>
+      </c>
+      <c r="H96">
+        <f t="shared" si="1"/>
+        <v>15.6113580277572</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="B97" t="s">
         <v>0</v>
@@ -3507,18 +4681,22 @@
         <v>59225</v>
       </c>
       <c r="E97" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F97">
-        <v>-49</v>
+        <v>-59</v>
       </c>
       <c r="G97" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>131</v>
+        <v>57</v>
+      </c>
+      <c r="H97">
+        <f t="shared" si="1"/>
+        <v>19.106446691360503</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
+        <v>128</v>
       </c>
       <c r="B98" t="s">
         <v>0</v>
@@ -3530,18 +4708,22 @@
         <v>59225</v>
       </c>
       <c r="E98" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F98">
-        <v>-58</v>
+        <v>-49</v>
       </c>
       <c r="G98" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>133</v>
+        <v>20</v>
+      </c>
+      <c r="H98">
+        <f t="shared" si="1"/>
+        <v>17.279527904777702</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
+        <v>129</v>
       </c>
       <c r="B99" t="s">
         <v>0</v>
@@ -3553,18 +4735,22 @@
         <v>59225</v>
       </c>
       <c r="E99" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F99">
-        <v>-59</v>
+        <v>-58</v>
       </c>
       <c r="G99" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>135</v>
+        <v>130</v>
+      </c>
+      <c r="H99">
+        <f t="shared" si="1"/>
+        <v>30.148371659347799</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
+        <v>131</v>
       </c>
       <c r="B100" t="s">
         <v>0</v>
@@ -3576,18 +4762,22 @@
         <v>59225</v>
       </c>
       <c r="E100" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F100">
-        <v>-62</v>
+        <v>-59</v>
       </c>
       <c r="G100" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>136</v>
+        <v>132</v>
+      </c>
+      <c r="H100">
+        <f t="shared" si="1"/>
+        <v>91.841410373624186</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
+        <v>133</v>
       </c>
       <c r="B101" t="s">
         <v>0</v>
@@ -3599,18 +4789,22 @@
         <v>59225</v>
       </c>
       <c r="E101" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F101">
-        <v>-47</v>
+        <v>-62</v>
       </c>
       <c r="G101" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>138</v>
+        <v>1</v>
+      </c>
+      <c r="H101">
+        <f t="shared" si="1"/>
+        <v>105.106347970676</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
+        <v>134</v>
       </c>
       <c r="B102" t="s">
         <v>0</v>
@@ -3622,16 +4816,49 @@
         <v>59225</v>
       </c>
       <c r="E102" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F102">
+        <v>-47</v>
+      </c>
+      <c r="G102" t="s">
+        <v>135</v>
+      </c>
+      <c r="H102">
+        <f t="shared" si="1"/>
+        <v>45.231907847657702</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B103" t="s">
+        <v>0</v>
+      </c>
+      <c r="C103">
+        <v>4</v>
+      </c>
+      <c r="D103">
+        <v>59225</v>
+      </c>
+      <c r="E103" t="s">
+        <v>118</v>
+      </c>
+      <c r="F103">
         <v>-50</v>
       </c>
-      <c r="G102" t="s">
-        <v>47</v>
+      <c r="G103" t="s">
+        <v>45</v>
+      </c>
+      <c r="H103">
+        <f t="shared" si="1"/>
+        <v>14.089554769441001</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>